--- a/data-assert-backend/src/main/resources/template/company.xlsx
+++ b/data-assert-backend/src/main/resources/template/company.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA29CE9-5B47-48DE-AF7D-4A9BD5DA0E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACEFD7-FC8E-446C-AFC8-C0FA0CE4EDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -72,22 +72,12 @@
   <si>
     <t>DESCRIBE</t>
   </si>
-  <si>
-    <t>阿木木伐木场</t>
-  </si>
-  <si>
-    <t>花花</t>
-  </si>
-  <si>
-    <t>QWW23456ASDERFASDE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,14 +108,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,9 +142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -464,27 +443,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="value 不能为空" sqref="B1 B3:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="KEY 不能为空" sqref="A2" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>OR($A$2&lt;&gt;"")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="VALUE 不能为空" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>OR($B$2&lt;&gt;"")</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="value 不能为空" sqref="B1 B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
